--- a/xls/TABLE_关卡.xlsx
+++ b/xls/TABLE_关卡.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="266">
   <si>
     <t>id</t>
   </si>
@@ -821,6 +821,34 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,10 +916,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -907,19 +933,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="11">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1252,7 +1276,7 @@
   <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1300,31 +1324,31 @@
         <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="J2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="K2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:11">
